--- a/Datos/Database by set/Set with text box/Xlsx sets/Friday Night Magic 2005 (F05).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Friday Night Magic 2005 (F05).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A58"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,399 +444,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Blastoderm</t>
+          <t>('Blastoderm', ['{2}{G}{G}', 'Creature — Beast', 'Shroud (This creature can’t be the target of spells or abilities.)', 'Fading 3 (This creature enters the battlefield with three fade counters on it. At the beginning of your upkeep, remove a fade counter from it. If you can’t, sacrifice it.)', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{2}{G}{G}</t>
+          <t>('Cabal Therapy', ['{B}', 'Sorcery', 'Choose a nonland card name. Target player reveals their hand and discards all cards with that name.', 'Flashback—Sacrifice a creature. (You may cast this card from your graveyard for its flashback cost. Then exile it.)'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Beast</t>
+          <t>('Circle of Protection: Red', ['{1}{W}', 'Enchantment', '{1}: The next time a red source of your choice would deal damage to you this turn, prevent that damage.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Shroud (This creature can’t be the target of spells or abilities.)</t>
+          <t>('Counterspell', ['{U}{U}', 'Instant', 'Counter target spell.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fading 3 (This creature enters the battlefield with three fade counters on it. At the beginning of your upkeep, remove a fade counter from it. If you can’t, sacrifice it.)</t>
+          <t>('Duress', ['{B}', 'Sorcery', 'Target opponent reveals their hand. You choose a noncreature, nonland card from it. That player discards that card.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5/5</t>
+          <t>('Fact or Fiction', ['{3}{U}', 'Instant', 'Reveal the top five cards of your library. An opponent separates those cards into two piles. Put one pile into your hand and the other into your graveyard.'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Cabal Therapy</t>
+          <t>('Flametongue Kavu', ['{3}{R}', 'Creature — Kavu', 'When Flametongue Kavu enters the battlefield, it deals 4 damage to target creature.', '4/2'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>{B}</t>
+          <t>('Icy Manipulator', ['{4}', 'Artifact', '{1}, {T}: Tap target artifact, creature, or land.'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sorcery</t>
+          <t>('Juggernaut', ['{4}', 'Artifact Creature — Juggernaut', 'Juggernaut attacks each combat if able.', 'Juggernaut can’t be blocked by Walls.', '5/3'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Choose a nonland card name. Target player reveals their hand and discards all cards with that name.</t>
+          <t>('Kird Ape', ['{R}', 'Creature — Ape', 'Kird Ape gets +1/+2 as long as you control a Forest.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Flashback—Sacrifice a creature. (You may cast this card from your graveyard for its flashback cost. Then exile it.)</t>
+          <t>('Rancor', ['{G}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +2/+0 and has trample.', 'When Rancor is put into a graveyard from the battlefield, return Rancor to its owner’s hand.'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Circle of Protection: Red</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>{1}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Enchantment</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>{1}: The next time a red source of your choice would deal damage to you this turn, prevent that damage.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Counterspell</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>{U}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Counter target spell.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Duress</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Target opponent reveals their hand. You choose a noncreature, nonland card from it. That player discards that card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Fact or Fiction</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>{3}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Reveal the top five cards of your library. An opponent separates those cards into two piles. Put one pile into your hand and the other into your graveyard.</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Flametongue Kavu</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>{3}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Creature — Kavu</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>When Flametongue Kavu enters the battlefield, it deals 4 damage to target creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>4/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Icy Manipulator</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>{4}</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Artifact</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>{1}, {T}: Tap target artifact, creature, or land.</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Juggernaut</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>{4}</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Artifact Creature — Juggernaut</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Juggernaut attacks each combat if able.</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Juggernaut can’t be blocked by Walls.</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>5/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Kird Ape</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Creature — Ape</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Kird Ape gets +1/+2 as long as you control a Forest.</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Rancor</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Enchantment — Aura</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Enchant creature</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Enchanted creature gets +2/+0 and has trample.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>When Rancor is put into a graveyard from the battlefield, return Rancor to its owner’s hand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Seal of Cleansing</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>{1}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Enchantment</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Sacrifice Seal of Cleansing: Destroy target artifact or enchantment.</t>
+          <t>('Seal of Cleansing', ['{1}{W}', 'Enchantment', 'Sacrifice Seal of Cleansing: Destroy target artifact or enchantment.'])</t>
         </is>
       </c>
     </row>
